--- a/tables/books_geocomp.xlsx
+++ b/tables/books_geocomp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@Quarto projects/Rsources_book/Resources/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58BA3F1-A777-774B-80C8-1E6BA5465467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105623C8-1483-224F-928A-B25EAB5C7D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14160" xr2:uid="{7037AAC1-E376-2240-B714-2C626327E5DD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="103">
   <si>
     <t>title</t>
   </si>
@@ -322,6 +322,30 @@
   </si>
   <si>
     <t>Claudia A Engel</t>
+  </si>
+  <si>
+    <t>Timothée Giraud</t>
+  </si>
+  <si>
+    <t>Cartography with R. Create reproducible maps with R</t>
+  </si>
+  <si>
+    <t>https://rcarto.github.io/cartography_with_r/</t>
+  </si>
+  <si>
+    <t>Cloud-Optimized Geospatial Formats Guide</t>
+  </si>
+  <si>
+    <t>https://guide.cloudnativegeo.org/</t>
+  </si>
+  <si>
+    <t>R Spatial Cookbook</t>
+  </si>
+  <si>
+    <t>https://pmassicotte.github.io/r-spatial-cookbook/</t>
+  </si>
+  <si>
+    <t>Philippe Massicotte</t>
   </si>
 </sst>
 </file>
@@ -677,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA5C5B3-2E8C-E14B-9899-2EF56FF1425F}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1138,6 +1162,48 @@
         <v>14</v>
       </c>
     </row>
+    <row r="33" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tables/books_geocomp.xlsx
+++ b/tables/books_geocomp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105623C8-1483-224F-928A-B25EAB5C7D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C2FA27-0353-3B42-9B5D-6EB58145DED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14160" xr2:uid="{7037AAC1-E376-2240-B714-2C626327E5DD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="105">
   <si>
     <t>title</t>
   </si>
@@ -346,6 +346,12 @@
   </si>
   <si>
     <t>Philippe Massicotte</t>
+  </si>
+  <si>
+    <t>List of all projection images</t>
+  </si>
+  <si>
+    <t>https://proj.org/en/latest/operations/projections/all_images.html</t>
   </si>
 </sst>
 </file>
@@ -701,16 +707,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA5C5B3-2E8C-E14B-9899-2EF56FF1425F}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="36" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="57" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -1204,6 +1210,20 @@
         <v>3</v>
       </c>
     </row>
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tables/books_geocomp.xlsx
+++ b/tables/books_geocomp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C2FA27-0353-3B42-9B5D-6EB58145DED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777F4CE1-7AED-A544-838F-6F0122363428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14160" xr2:uid="{7037AAC1-E376-2240-B714-2C626327E5DD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="112">
   <si>
     <t>title</t>
   </si>
@@ -352,6 +352,27 @@
   </si>
   <si>
     <t>https://proj.org/en/latest/operations/projections/all_images.html</t>
+  </si>
+  <si>
+    <t>Aditya Dahiya</t>
+  </si>
+  <si>
+    <t>Visualizing Information and Spatial Analysis with ggplot2 Extensions</t>
+  </si>
+  <si>
+    <t>https://aditya-dahiya.github.io/visage/</t>
+  </si>
+  <si>
+    <t>К</t>
+  </si>
+  <si>
+    <t>Andy MacLachlan, Adam Dennett and Claire Dooley</t>
+  </si>
+  <si>
+    <t>Geographic Information Systems and Science</t>
+  </si>
+  <si>
+    <t>https://andrewmaclachlan.github.io/CASA0005repo/index.html</t>
   </si>
 </sst>
 </file>
@@ -707,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA5C5B3-2E8C-E14B-9899-2EF56FF1425F}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1000,7 +1021,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>90</v>
       </c>
@@ -1222,6 +1243,34 @@
       </c>
       <c r="D36" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/tables/books_geocomp.xlsx
+++ b/tables/books_geocomp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777F4CE1-7AED-A544-838F-6F0122363428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433A1791-C5AB-5642-8C8D-4AD27B011C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14160" xr2:uid="{7037AAC1-E376-2240-B714-2C626327E5DD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="111">
   <si>
     <t>title</t>
   </si>
@@ -361,9 +361,6 @@
   </si>
   <si>
     <t>https://aditya-dahiya.github.io/visage/</t>
-  </si>
-  <si>
-    <t>К</t>
   </si>
   <si>
     <t>Andy MacLachlan, Adam Dennett and Claire Dooley</t>
@@ -731,7 +728,7 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1256,21 +1253,21 @@
         <v>107</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>108</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="D38" s="1" t="s">
-        <v>108</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/tables/books_geocomp.xlsx
+++ b/tables/books_geocomp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433A1791-C5AB-5642-8C8D-4AD27B011C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB4482F-7F25-304B-96EF-FCEAF6A598E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14160" xr2:uid="{7037AAC1-E376-2240-B714-2C626327E5DD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="111">
   <si>
     <t>title</t>
   </si>
@@ -725,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA5C5B3-2E8C-E14B-9899-2EF56FF1425F}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1270,6 +1270,20 @@
         <v>3</v>
       </c>
     </row>
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tables/books_geocomp.xlsx
+++ b/tables/books_geocomp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB4482F-7F25-304B-96EF-FCEAF6A598E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141B2086-B7C2-044E-88C6-94CE17D87819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14160" xr2:uid="{7037AAC1-E376-2240-B714-2C626327E5DD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="111">
   <si>
     <t>title</t>
   </si>
@@ -725,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA5C5B3-2E8C-E14B-9899-2EF56FF1425F}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1132,111 +1132,111 @@
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="B31" s="1" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>3</v>
@@ -1244,43 +1244,29 @@
     </row>
     <row r="37" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D39" s="1" t="s">
         <v>14</v>
       </c>
     </row>

--- a/tables/books_geocomp.xlsx
+++ b/tables/books_geocomp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141B2086-B7C2-044E-88C6-94CE17D87819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58608567-48A8-CB43-B9FF-19461A441DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14160" xr2:uid="{7037AAC1-E376-2240-B714-2C626327E5DD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="114">
   <si>
     <t>title</t>
   </si>
@@ -370,6 +370,15 @@
   </si>
   <si>
     <t>https://andrewmaclachlan.github.io/CASA0005repo/index.html</t>
+  </si>
+  <si>
+    <t>Martijn Tennekes and Jakub Nowosad</t>
+  </si>
+  <si>
+    <t>Spatial Data Visualization with tmap</t>
+  </si>
+  <si>
+    <t>https://tmap.geocompx.org/</t>
   </si>
 </sst>
 </file>
@@ -725,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA5C5B3-2E8C-E14B-9899-2EF56FF1425F}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1270,6 +1279,20 @@
         <v>14</v>
       </c>
     </row>
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
